--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_126_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_126_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.796148223268104, 4.18557737973877]</t>
+          <t>[3.7935000244462405, 4.188225578560633]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,37 +603,37 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.03144737390980801, 0.06918422260157797]</t>
+          <t>[-0.044026323473730145, 0.08176317216550011]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.4540109772096363</v>
+        <v>0.5487244677122003</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4540109772096363</v>
+        <v>0.5487244677122003</v>
       </c>
       <c r="S2" t="n">
         <v>0.3171312906862802</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.17837064085332477, 0.45589194051923565]</t>
+          <t>[0.17845077253651542, 0.455811808836045]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3.404209091906196e-05</v>
+        <v>3.374809002498758e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>3.404209091906196e-05</v>
+        <v>3.374809002498758e-05</v>
       </c>
       <c r="W2" t="n">
         <v>22.18318318318353</v>
       </c>
       <c r="X2" t="n">
-        <v>22.00500500500535</v>
+        <v>21.96046046046081</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.36136136136172</v>
+        <v>22.40590590590626</v>
       </c>
     </row>
   </sheetData>
